--- a/model_definition_simple_ex.xlsx
+++ b/model_definition_simple_ex.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rycar\Documents\GitHub\ODBM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECCED169-CBBD-4AF5-B01B-21BAAFA656F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{736BB735-C4BA-4DDB-9961-D8D21C69828C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" activeTab="1" xr2:uid="{37B5865E-6676-4A0B-967E-9A7116103312}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="39">
   <si>
     <t>Label</t>
   </si>
@@ -152,9 +152,6 @@
   </si>
   <si>
     <t>kcat:10;Km1:50;Km2:50;K:5</t>
-  </si>
-  <si>
-    <t>A</t>
   </si>
 </sst>
 </file>
@@ -523,11 +520,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA16065E-CBBA-49C5-AD56-8DE07546DCC3}">
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
@@ -535,7 +530,7 @@
     <col min="4" max="4" width="14.578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:4" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -549,7 +544,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -560,7 +555,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -571,7 +566,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -582,7 +577,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>34</v>
       </c>
@@ -593,7 +588,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>35</v>
       </c>
@@ -604,7 +599,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
         <v>36</v>
       </c>
@@ -615,7 +610,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -626,7 +621,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -637,7 +632,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -648,7 +643,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -659,7 +654,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -670,7 +665,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -681,7 +676,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -690,9 +685,6 @@
       </c>
       <c r="C14">
         <v>2</v>
-      </c>
-      <c r="H14" t="s">
-        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -704,7 +696,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{542CDD3C-AD6A-49FE-94BE-7648650D73FD}">
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>

--- a/model_definition_simple_ex.xlsx
+++ b/model_definition_simple_ex.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rycar\Documents\GitHub\ODBM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{736BB735-C4BA-4DDB-9961-D8D21C69828C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EC952F3-DCDC-48A4-A458-B140EBB545E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" activeTab="1" xr2:uid="{37B5865E-6676-4A0B-967E-9A7116103312}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{37B5865E-6676-4A0B-967E-9A7116103312}"/>
   </bookViews>
   <sheets>
     <sheet name="Species &amp; Base Mechanisms" sheetId="1" r:id="rId1"/>
     <sheet name="Reaction" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="65">
   <si>
     <t>Label</t>
   </si>
@@ -61,9 +61,6 @@
     <t>Oxaloacetic acid</t>
   </si>
   <si>
-    <t>Malic acid</t>
-  </si>
-  <si>
     <t>ATP</t>
   </si>
   <si>
@@ -88,18 +85,6 @@
     <t>Enzyme</t>
   </si>
   <si>
-    <t>Sda</t>
-  </si>
-  <si>
-    <t>PCX</t>
-  </si>
-  <si>
-    <t>Mdh</t>
-  </si>
-  <si>
-    <t>DNA</t>
-  </si>
-  <si>
     <t>Mechanism</t>
   </si>
   <si>
@@ -124,9 +109,6 @@
     <t>Pyruvic acid; NH3</t>
   </si>
   <si>
-    <t>kcat:10;Km:50</t>
-  </si>
-  <si>
     <t>R2</t>
   </si>
   <si>
@@ -139,26 +121,122 @@
     <t>R3</t>
   </si>
   <si>
-    <t>PCX_DNA</t>
-  </si>
-  <si>
-    <t>Mdh_DNA</t>
-  </si>
-  <si>
-    <t>Sda_DNA</t>
-  </si>
-  <si>
     <t>Mechanisms</t>
   </si>
   <si>
-    <t>kcat:10;Km1:50;Km2:50;K:5</t>
+    <t>Sda_Msmeg</t>
+  </si>
+  <si>
+    <t>Sda_Bsub</t>
+  </si>
+  <si>
+    <t>Sda_Ecoli</t>
+  </si>
+  <si>
+    <t>Sda_Lpneu</t>
+  </si>
+  <si>
+    <t>PCX_Retli</t>
+  </si>
+  <si>
+    <t>PCX_Scer</t>
+  </si>
+  <si>
+    <t>PCX_Msmeg</t>
+  </si>
+  <si>
+    <t>PCX_Gtherm</t>
+  </si>
+  <si>
+    <t>Mdh_Ecoli</t>
+  </si>
+  <si>
+    <t>Mdh_Mdom</t>
+  </si>
+  <si>
+    <t>Mdh_Remer</t>
+  </si>
+  <si>
+    <t>Mdh_Taes</t>
+  </si>
+  <si>
+    <t>kcat:500;Km: .00258</t>
+  </si>
+  <si>
+    <t>kcat: 585;Km: 29.2</t>
+  </si>
+  <si>
+    <t>kcat:436;Km:2.67</t>
+  </si>
+  <si>
+    <t>kcat: 506;Km:2.2</t>
+  </si>
+  <si>
+    <t>kcat:7.33;Km1:1.65;Km2:10.8;K:10</t>
+  </si>
+  <si>
+    <t>kcat:60;Km1:.5;Km2:1.36;K:10</t>
+  </si>
+  <si>
+    <t>kcat:33.5;Km1:.375;Km2:3.8;K:10</t>
+  </si>
+  <si>
+    <t>kcat:33.5;Km1:.31;Km2:45;K:10</t>
+  </si>
+  <si>
+    <t>kcat:931;Km1:04;Km2:1;K:10</t>
+  </si>
+  <si>
+    <t>kcat:4553;Km1:.405;Km2:1.4;K:10</t>
+  </si>
+  <si>
+    <t>kcat:81000;Km1:.02;Km2:.025;K:10</t>
+  </si>
+  <si>
+    <t>kcat:121600,Km1:3.23;Km:.39;K:10</t>
+  </si>
+  <si>
+    <t>Oxaloacetic acid;NADH</t>
+  </si>
+  <si>
+    <t>Malic acid;NAD+</t>
+  </si>
+  <si>
+    <t>R4</t>
+  </si>
+  <si>
+    <t>R5</t>
+  </si>
+  <si>
+    <t>R6</t>
+  </si>
+  <si>
+    <t>R7</t>
+  </si>
+  <si>
+    <t>R8</t>
+  </si>
+  <si>
+    <t>R9</t>
+  </si>
+  <si>
+    <t>R10</t>
+  </si>
+  <si>
+    <t>R11</t>
+  </si>
+  <si>
+    <t>R12</t>
+  </si>
+  <si>
+    <t>Oxaloacetic acid; ADP</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -174,13 +252,31 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -195,7 +291,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -205,6 +301,24 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -520,9 +634,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA16065E-CBBA-49C5-AD56-8DE07546DCC3}">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
@@ -541,7 +657,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -552,7 +668,7 @@
         <v>4</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -563,7 +679,7 @@
         <v>4</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -574,117 +690,216 @@
         <v>4</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C5">
-        <v>5</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C6">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C7">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C8">
-        <v>2</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C9">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C10">
-        <v>2</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C11">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" t="s">
-        <v>13</v>
+      <c r="A12" s="4" t="s">
+        <v>29</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="C12">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" t="s">
-        <v>14</v>
+      <c r="A13" s="4" t="s">
+        <v>30</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="C13">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" t="s">
+      <c r="A14" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" t="s">
         <v>15</v>
       </c>
-      <c r="B14" t="s">
-        <v>23</v>
-      </c>
       <c r="C14">
-        <v>2</v>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B21" t="s">
+        <v>15</v>
+      </c>
+      <c r="C21">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B22" t="s">
+        <v>15</v>
+      </c>
+      <c r="C22">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B23" t="s">
+        <v>15</v>
+      </c>
+      <c r="C23">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -694,10 +909,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{542CDD3C-AD6A-49FE-94BE-7648650D73FD}">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView zoomScale="101" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B13" sqref="B2:B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -705,97 +920,308 @@
     <col min="1" max="7" width="20.578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="B2" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>22</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>27</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>5</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>18</v>
-      </c>
       <c r="C3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="C4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G3" s="3" t="s">
+      <c r="C5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" s="9"/>
+      <c r="I6" s="8"/>
+    </row>
+    <row r="7" spans="1:9" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+    </row>
+    <row r="8" spans="1:9" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+    </row>
+    <row r="9" spans="1:9" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+    </row>
+    <row r="10" spans="1:9" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="H10" s="8"/>
+      <c r="I10" s="9"/>
+    </row>
+    <row r="11" spans="1:9" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>29</v>
-      </c>
+      <c r="C11" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+    </row>
+    <row r="12" spans="1:9" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+    </row>
+    <row r="13" spans="1:9" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/model_definition_simple_ex.xlsx
+++ b/model_definition_simple_ex.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rycar\Documents\GitHub\ODBM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Diego Alba\Documents\GitHub\ODBM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EC952F3-DCDC-48A4-A458-B140EBB545E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E594F32-2A82-49B4-968A-C6DC9A4F055D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{37B5865E-6676-4A0B-967E-9A7116103312}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{37B5865E-6676-4A0B-967E-9A7116103312}"/>
   </bookViews>
   <sheets>
     <sheet name="Species &amp; Base Mechanisms" sheetId="1" r:id="rId1"/>
     <sheet name="Reaction" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -193,9 +193,6 @@
     <t>kcat:81000;Km1:.02;Km2:.025;K:10</t>
   </si>
   <si>
-    <t>kcat:121600,Km1:3.23;Km:.39;K:10</t>
-  </si>
-  <si>
     <t>Oxaloacetic acid;NADH</t>
   </si>
   <si>
@@ -230,6 +227,9 @@
   </si>
   <si>
     <t>Oxaloacetic acid; ADP</t>
+  </si>
+  <si>
+    <t>kcat:121600;Km1:3.23;Km2:.39;K:10</t>
   </si>
 </sst>
 </file>
@@ -637,16 +637,16 @@
   <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C11" sqref="C11:C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="15.578125" customWidth="1"/>
-    <col min="4" max="4" width="14.578125" customWidth="1"/>
+    <col min="1" max="3" width="15.5703125" customWidth="1"/>
+    <col min="4" max="4" width="14.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -660,7 +660,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -671,7 +671,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -682,7 +682,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -693,7 +693,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -704,7 +704,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -715,7 +715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -726,7 +726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -737,7 +737,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -748,7 +748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -759,7 +759,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -770,7 +770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>29</v>
       </c>
@@ -778,10 +778,10 @@
         <v>15</v>
       </c>
       <c r="C12">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>30</v>
       </c>
@@ -789,10 +789,10 @@
         <v>15</v>
       </c>
       <c r="C13">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>31</v>
       </c>
@@ -800,10 +800,10 @@
         <v>15</v>
       </c>
       <c r="C14">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>32</v>
       </c>
@@ -811,10 +811,10 @@
         <v>15</v>
       </c>
       <c r="C15">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>33</v>
       </c>
@@ -822,10 +822,10 @@
         <v>15</v>
       </c>
       <c r="C16">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>34</v>
       </c>
@@ -833,10 +833,10 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>35</v>
       </c>
@@ -844,10 +844,10 @@
         <v>15</v>
       </c>
       <c r="C18">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>36</v>
       </c>
@@ -855,10 +855,10 @@
         <v>15</v>
       </c>
       <c r="C19">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>37</v>
       </c>
@@ -866,10 +866,10 @@
         <v>15</v>
       </c>
       <c r="C20">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>38</v>
       </c>
@@ -877,10 +877,10 @@
         <v>15</v>
       </c>
       <c r="C21">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>39</v>
       </c>
@@ -888,10 +888,10 @@
         <v>15</v>
       </c>
       <c r="C22">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>40</v>
       </c>
@@ -899,7 +899,7 @@
         <v>15</v>
       </c>
       <c r="C23">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -912,15 +912,16 @@
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView zoomScale="101" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B13" sqref="B2:B13"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="7" width="20.578125" customWidth="1"/>
+    <col min="1" max="6" width="20.5703125" customWidth="1"/>
+    <col min="7" max="7" width="40.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -943,7 +944,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>21</v>
       </c>
@@ -964,7 +965,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>24</v>
       </c>
@@ -985,7 +986,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>27</v>
       </c>
@@ -1006,9 +1007,9 @@
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>32</v>
@@ -1027,9 +1028,9 @@
         <v>44</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>33</v>
@@ -1044,7 +1045,7 @@
         <v>8</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G6" s="8" t="s">
         <v>45</v>
@@ -1052,9 +1053,9 @@
       <c r="H6" s="9"/>
       <c r="I6" s="8"/>
     </row>
-    <row r="7" spans="1:9" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>34</v>
@@ -1069,7 +1070,7 @@
         <v>8</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G7" s="8" t="s">
         <v>46</v>
@@ -1077,9 +1078,9 @@
       <c r="H7" s="8"/>
       <c r="I7" s="8"/>
     </row>
-    <row r="8" spans="1:9" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>35</v>
@@ -1094,7 +1095,7 @@
         <v>8</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G8" s="8" t="s">
         <v>47</v>
@@ -1102,9 +1103,9 @@
       <c r="H8" s="8"/>
       <c r="I8" s="8"/>
     </row>
-    <row r="9" spans="1:9" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>36</v>
@@ -1119,7 +1120,7 @@
         <v>8</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G9" s="8" t="s">
         <v>48</v>
@@ -1127,9 +1128,9 @@
       <c r="H9" s="8"/>
       <c r="I9" s="8"/>
     </row>
-    <row r="10" spans="1:9" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>37</v>
@@ -1138,11 +1139,11 @@
         <v>25</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G10" s="8" t="s">
         <v>49</v>
@@ -1150,9 +1151,9 @@
       <c r="H10" s="8"/>
       <c r="I10" s="9"/>
     </row>
-    <row r="11" spans="1:9" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>38</v>
@@ -1161,11 +1162,11 @@
         <v>25</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G11" s="8" t="s">
         <v>50</v>
@@ -1173,9 +1174,9 @@
       <c r="H11" s="8"/>
       <c r="I11" s="8"/>
     </row>
-    <row r="12" spans="1:9" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>39</v>
@@ -1184,11 +1185,11 @@
         <v>25</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G12" s="8" t="s">
         <v>51</v>
@@ -1196,9 +1197,9 @@
       <c r="H12" s="8"/>
       <c r="I12" s="8"/>
     </row>
-    <row r="13" spans="1:9" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>40</v>
@@ -1207,14 +1208,14 @@
         <v>25</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="H13" s="8"/>
       <c r="I13" s="8"/>

--- a/model_definition_simple_ex.xlsx
+++ b/model_definition_simple_ex.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Diego Alba\Documents\GitHub\ODBM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rycar\Documents\GitHub\ODBM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E594F32-2A82-49B4-968A-C6DC9A4F055D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8E660D4-818F-4FCC-ABE3-F6F38D51EDF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{37B5865E-6676-4A0B-967E-9A7116103312}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{37B5865E-6676-4A0B-967E-9A7116103312}"/>
   </bookViews>
   <sheets>
     <sheet name="Species &amp; Base Mechanisms" sheetId="1" r:id="rId1"/>
     <sheet name="Reaction" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -637,16 +637,16 @@
   <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11:C23"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="3" width="15.5703125" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" customWidth="1"/>
+    <col min="1" max="3" width="15.578125" customWidth="1"/>
+    <col min="4" max="4" width="14.578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -660,7 +660,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -671,7 +671,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -679,10 +679,10 @@
         <v>4</v>
       </c>
       <c r="C3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -690,10 +690,10 @@
         <v>4</v>
       </c>
       <c r="C4">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -704,7 +704,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -715,7 +715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -726,7 +726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -737,7 +737,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -748,7 +748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -759,7 +759,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -770,7 +770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="4" t="s">
         <v>29</v>
       </c>
@@ -781,7 +781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="4" t="s">
         <v>30</v>
       </c>
@@ -792,7 +792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="4" t="s">
         <v>31</v>
       </c>
@@ -803,7 +803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="3" t="s">
         <v>32</v>
       </c>
@@ -814,7 +814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="3" t="s">
         <v>33</v>
       </c>
@@ -825,7 +825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="3" t="s">
         <v>34</v>
       </c>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="3" t="s">
         <v>35</v>
       </c>
@@ -847,7 +847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="3" t="s">
         <v>36</v>
       </c>
@@ -858,7 +858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="3" t="s">
         <v>37</v>
       </c>
@@ -869,7 +869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="3" t="s">
         <v>38</v>
       </c>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="3" t="s">
         <v>39</v>
       </c>
@@ -891,7 +891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="3" t="s">
         <v>40</v>
       </c>
@@ -915,13 +915,13 @@
       <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="6" width="20.5703125" customWidth="1"/>
-    <col min="7" max="7" width="40.85546875" customWidth="1"/>
+    <col min="1" max="6" width="20.578125" customWidth="1"/>
+    <col min="7" max="7" width="40.83984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -944,7 +944,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="4" t="s">
         <v>21</v>
       </c>
@@ -965,7 +965,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="4" t="s">
         <v>24</v>
       </c>
@@ -986,7 +986,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="4" t="s">
         <v>27</v>
       </c>
@@ -1007,7 +1007,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="4" t="s">
         <v>54</v>
       </c>
@@ -1028,7 +1028,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="4" t="s">
         <v>55</v>
       </c>
@@ -1053,7 +1053,7 @@
       <c r="H6" s="9"/>
       <c r="I6" s="8"/>
     </row>
-    <row r="7" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="4" t="s">
         <v>56</v>
       </c>
@@ -1078,7 +1078,7 @@
       <c r="H7" s="8"/>
       <c r="I7" s="8"/>
     </row>
-    <row r="8" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="4" t="s">
         <v>57</v>
       </c>
@@ -1103,7 +1103,7 @@
       <c r="H8" s="8"/>
       <c r="I8" s="8"/>
     </row>
-    <row r="9" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="4" t="s">
         <v>58</v>
       </c>
@@ -1128,7 +1128,7 @@
       <c r="H9" s="8"/>
       <c r="I9" s="8"/>
     </row>
-    <row r="10" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="4" t="s">
         <v>59</v>
       </c>
@@ -1151,7 +1151,7 @@
       <c r="H10" s="8"/>
       <c r="I10" s="9"/>
     </row>
-    <row r="11" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="4" t="s">
         <v>60</v>
       </c>
@@ -1174,7 +1174,7 @@
       <c r="H11" s="8"/>
       <c r="I11" s="8"/>
     </row>
-    <row r="12" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="4" t="s">
         <v>61</v>
       </c>
@@ -1197,7 +1197,7 @@
       <c r="H12" s="8"/>
       <c r="I12" s="8"/>
     </row>
-    <row r="13" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="4" t="s">
         <v>62</v>
       </c>

--- a/model_definition_simple_ex.xlsx
+++ b/model_definition_simple_ex.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rycar\Documents\GitHub\ODBM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8E660D4-818F-4FCC-ABE3-F6F38D51EDF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78471307-2E7F-4662-AA95-74780454FA58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{37B5865E-6676-4A0B-967E-9A7116103312}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" activeTab="1" xr2:uid="{37B5865E-6676-4A0B-967E-9A7116103312}"/>
   </bookViews>
   <sheets>
     <sheet name="Species &amp; Base Mechanisms" sheetId="1" r:id="rId1"/>
@@ -112,9 +112,6 @@
     <t>R2</t>
   </si>
   <si>
-    <t>OBB</t>
-  </si>
-  <si>
     <t>Pyruvic acid; CO2</t>
   </si>
   <si>
@@ -230,6 +227,9 @@
   </si>
   <si>
     <t>kcat:121600;Km1:3.23;Km2:.39;K:10</t>
+  </si>
+  <si>
+    <t>SOBB</t>
   </si>
 </sst>
 </file>
@@ -636,7 +636,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA16065E-CBBA-49C5-AD56-8DE07546DCC3}">
   <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
@@ -657,7 +657,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -772,7 +772,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B12" t="s">
         <v>15</v>
@@ -783,7 +783,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B13" t="s">
         <v>15</v>
@@ -794,7 +794,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B14" t="s">
         <v>15</v>
@@ -805,7 +805,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B15" t="s">
         <v>15</v>
@@ -816,7 +816,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B16" t="s">
         <v>15</v>
@@ -827,7 +827,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B17" t="s">
         <v>15</v>
@@ -838,7 +838,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B18" t="s">
         <v>15</v>
@@ -849,7 +849,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B19" t="s">
         <v>15</v>
@@ -860,7 +860,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B20" t="s">
         <v>15</v>
@@ -871,7 +871,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B21" t="s">
         <v>15</v>
@@ -882,7 +882,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B22" t="s">
         <v>15</v>
@@ -893,7 +893,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B23" t="s">
         <v>15</v>
@@ -911,8 +911,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{542CDD3C-AD6A-49FE-94BE-7648650D73FD}">
   <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView zoomScale="101" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView tabSelected="1" zoomScale="101" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -949,7 +949,7 @@
         <v>21</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>22</v>
@@ -962,7 +962,7 @@
         <v>23</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -970,7 +970,7 @@
         <v>24</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>22</v>
@@ -983,15 +983,15 @@
         <v>23</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>22</v>
@@ -1004,15 +1004,15 @@
         <v>23</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>22</v>
@@ -1025,197 +1025,197 @@
         <v>23</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C6" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>25</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>26</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>8</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H6" s="9"/>
       <c r="I6" s="8"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C7" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D7" s="3" t="s">
         <v>25</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>26</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>8</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H7" s="8"/>
       <c r="I7" s="8"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C8" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D8" s="3" t="s">
         <v>25</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>26</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>8</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H8" s="8"/>
       <c r="I8" s="8"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C9" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D9" s="3" t="s">
         <v>25</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>26</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>8</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H9" s="8"/>
       <c r="I9" s="8"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>25</v>
+        <v>64</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H10" s="8"/>
       <c r="I10" s="9"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>25</v>
+        <v>64</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H11" s="8"/>
       <c r="I11" s="8"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>25</v>
+        <v>64</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H12" s="8"/>
       <c r="I12" s="8"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>25</v>
+        <v>64</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H13" s="8"/>
       <c r="I13" s="8"/>
